--- a/결과 정리중.xlsx
+++ b/결과 정리중.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEBBEFE-A04C-44AB-9466-82638AEC6437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E7F20E-410B-4328-ACD0-DD6F6FF180E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="1965" windowWidth="14475" windowHeight="13725" xr2:uid="{5DE18046-4857-4575-8ADD-3623AAC70F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5DE18046-4857-4575-8ADD-3623AAC70F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>25*10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hyper parameter 점검 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;SC2 : 50 * 5&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +185,30 @@
   </si>
   <si>
     <t>EMNIST-Digit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;SC2 : 100 * 10&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fashion MNIST []</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNIST_Acc(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNIST_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fashion_Acc(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fashion_Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy(%)</c:v>
+                  <c:v>MNIST_Acc(%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -600,63 +620,6 @@
                 <c:pt idx="79">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.99</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -667,208 +630,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36866351698976002</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36876326516861502</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36858702655047298</c:v>
+                  <c:v>0.50048305903489798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45057884398378401</c:v>
+                  <c:v>0.50060186833494402</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51373564229522195</c:v>
+                  <c:v>0.50549507160765095</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59419220279159302</c:v>
+                  <c:v>0.51903460349786501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64766372677800699</c:v>
+                  <c:v>0.53519492429488502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.67533577533577505</c:v>
+                  <c:v>0.551835006273525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.71867238654323695</c:v>
+                  <c:v>0.58534681044124104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.79964509510342097</c:v>
+                  <c:v>0.60783350453307095</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.83048016701461302</c:v>
+                  <c:v>0.63200341572180796</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.85743563468681905</c:v>
+                  <c:v>0.66759102346839205</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88686481303930897</c:v>
+                  <c:v>0.70256026185126597</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90466912030020896</c:v>
+                  <c:v>0.72574194906335499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90974116953026996</c:v>
+                  <c:v>0.75556651866469304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91582963482052404</c:v>
+                  <c:v>0.88802419354838702</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91900561347233301</c:v>
+                  <c:v>0.910746499441628</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.93103160006687802</c:v>
+                  <c:v>0.92230983302411795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.94439134590320595</c:v>
+                  <c:v>0.942747339377217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94901537631507904</c:v>
+                  <c:v>0.95098801929360499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94968319045844196</c:v>
+                  <c:v>0.95602130218175496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.950664499474137</c:v>
+                  <c:v>0.96454152607588906</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95564079866233897</c:v>
+                  <c:v>0.97239810659617598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.96746451144959</c:v>
+                  <c:v>0.97588137966144795</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97576613779613097</c:v>
+                  <c:v>0.98206307490144495</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98771000112752205</c:v>
+                  <c:v>0.98682333763499197</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98993210021072298</c:v>
+                  <c:v>0.98858833474218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99106603887480305</c:v>
+                  <c:v>0.99009251839440504</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99362977766674998</c:v>
+                  <c:v>0.99366363844568195</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99448505835577705</c:v>
+                  <c:v>0.99520345351346995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99483101391650097</c:v>
+                  <c:v>0.99582916249582898</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99513483458437502</c:v>
+                  <c:v>0.99610220874837596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99565783760312598</c:v>
+                  <c:v>0.99641807494489298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99640664770175102</c:v>
+                  <c:v>0.99692159692159599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99691167387276003</c:v>
+                  <c:v>0.99704503770124298</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99758492996296799</c:v>
+                  <c:v>0.99705272350180096</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99847016828148905</c:v>
+                  <c:v>0.99710044073300796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99839829151094495</c:v>
+                  <c:v>0.99747474747474696</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99906681597611002</c:v>
+                  <c:v>0.997798266134581</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99920159680638698</c:v>
+                  <c:v>0.99799041582933901</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99917406566177902</c:v>
+                  <c:v>0.99808027923211096</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99933628318584</c:v>
+                  <c:v>0.99822450187413603</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99952324195470799</c:v>
+                  <c:v>0.99813823597858897</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99944444444444402</c:v>
+                  <c:v>0.99806789953077502</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99938328707986401</c:v>
+                  <c:v>0.99799263967882201</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99932659932659895</c:v>
+                  <c:v>0.99835255354200902</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99927033929222897</c:v>
+                  <c:v>0.99893105291287998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99916909015371802</c:v>
+                  <c:v>0.998493975903614</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99905704856199895</c:v>
+                  <c:v>0.99896157840083</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99933065595716197</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.999258160237388</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.999229583975346</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99899699097291805</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99887766554433199</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>1</c:v>
@@ -883,19 +846,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0</c:v>
@@ -904,63 +867,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1175,20 +1081,36 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>SC2-</a:t>
+              <a:t>Comparison</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Threshold sensitive test</a:t>
+              <a:t>MNIST with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Fashion MNiST (10 Class)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12887371213676493"/>
+          <c:y val="3.3467211204064956E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1226,9 +1148,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10458092738407698"/>
-          <c:y val="0.19541666666666666"/>
+          <c:y val="0.13286243427327715"/>
           <c:w val="0.8225325896762905"/>
-          <c:h val="0.58202136191309417"/>
+          <c:h val="0.64457561137296848"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1244,7 +1166,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy(%)</c:v>
+                  <c:v>MNIST_Acc(%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,7 +1187,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1303,7 +1225,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1318,213 +1240,213 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Q2'!$C$5:$CW$5</c:f>
+              <c:f>'Q2'!$C$5:$CD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37035983263598299</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36866351698976002</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36876326516861502</c:v>
+                  <c:v>0.50049152542372799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36858702655047298</c:v>
+                  <c:v>0.50048305903489798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45057884398378401</c:v>
+                  <c:v>0.50060186833494402</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51373564229522195</c:v>
+                  <c:v>0.50549507160765095</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59419220279159302</c:v>
+                  <c:v>0.51903460349786501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64766372677800699</c:v>
+                  <c:v>0.53519492429488502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.67533577533577505</c:v>
+                  <c:v>0.551835006273525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.71867238654323695</c:v>
+                  <c:v>0.58534681044124104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.79964509510342097</c:v>
+                  <c:v>0.60783350453307095</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.83048016701461302</c:v>
+                  <c:v>0.63200341572180796</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.85743563468681905</c:v>
+                  <c:v>0.66759102346839205</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88686481303930897</c:v>
+                  <c:v>0.70256026185126597</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90466912030020896</c:v>
+                  <c:v>0.72574194906335499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90974116953026996</c:v>
+                  <c:v>0.75556651866469304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91582963482052404</c:v>
+                  <c:v>0.88802419354838702</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91900561347233301</c:v>
+                  <c:v>0.910746499441628</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.93103160006687802</c:v>
+                  <c:v>0.92230983302411795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.94439134590320595</c:v>
+                  <c:v>0.942747339377217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94901537631507904</c:v>
+                  <c:v>0.95098801929360499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94968319045844196</c:v>
+                  <c:v>0.95602130218175496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.950664499474137</c:v>
+                  <c:v>0.96454152607588906</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95564079866233897</c:v>
+                  <c:v>0.97239810659617598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.96746451144959</c:v>
+                  <c:v>0.97588137966144795</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97576613779613097</c:v>
+                  <c:v>0.98206307490144495</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98771000112752205</c:v>
+                  <c:v>0.98682333763499197</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98993210021072298</c:v>
+                  <c:v>0.98858833474218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99106603887480305</c:v>
+                  <c:v>0.99009251839440504</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99362977766674998</c:v>
+                  <c:v>0.99366363844568195</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99448505835577705</c:v>
+                  <c:v>0.99520345351346995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99483101391650097</c:v>
+                  <c:v>0.99582916249582898</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99513483458437502</c:v>
+                  <c:v>0.99610220874837596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99565783760312598</c:v>
+                  <c:v>0.99641807494489298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99640664770175102</c:v>
+                  <c:v>0.99692159692159599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99691167387276003</c:v>
+                  <c:v>0.99704503770124298</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99758492996296799</c:v>
+                  <c:v>0.99705272350180096</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99847016828148905</c:v>
+                  <c:v>0.99710044073300796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99839829151094495</c:v>
+                  <c:v>0.99747474747474696</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99906681597611002</c:v>
+                  <c:v>0.997798266134581</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99920159680638698</c:v>
+                  <c:v>0.99799041582933901</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99917406566177902</c:v>
+                  <c:v>0.99808027923211096</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99933628318584</c:v>
+                  <c:v>0.99822450187413603</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99952324195470799</c:v>
+                  <c:v>0.99813823597858897</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99944444444444402</c:v>
+                  <c:v>0.99806789953077502</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99938328707986401</c:v>
+                  <c:v>0.99799263967882201</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99932659932659895</c:v>
+                  <c:v>0.99835255354200902</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99927033929222897</c:v>
+                  <c:v>0.99893105291287998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99916909015371802</c:v>
+                  <c:v>0.998493975903614</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99905704856199895</c:v>
+                  <c:v>0.99896157840083</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99933065595716197</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.999258160237388</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.999229583975346</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99899699097291805</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99887766554433199</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>1</c:v>
@@ -1539,19 +1461,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0</c:v>
@@ -1560,63 +1482,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1625,6 +1490,304 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7410-47CE-9BD7-FD95DC796844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fashion_Acc(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="65"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-5B34-4484-A6B8-3D515402887D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$7:$CD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50397837396715295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50272630016909903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50904490147518</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51383399209486103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51631769359101698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52574937912712005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55013666217925095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57917888563049802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58801992131535197</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59875343634467704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60517589568426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61465440522100201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62037275616250098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62816728167281599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63654598664956696</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64550264550264502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65804101254412894</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67163998548328496</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68444904829729303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69464384318056305</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70830666207100301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72047264862583704</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73559245197483902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74628230131643103</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76706084428882804</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77602862254024996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79499450808096594</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80247751569658898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.81913123844731905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83173748254538205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84786211468345996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85891118855906701</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.87765176784523002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89567392583872796</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.90251775338928297</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90480411274596695</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.90385733669315704</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.908762995968597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.90978338490835498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.91187433439829602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91460811222933802</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.91198568872987396</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.91731160896130304</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.91279373368146199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.91625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.91487603305785103</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.91843220338983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92711370262390602</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.92110874200426396</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.90962099125364404</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.94372294372294296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95104895104895104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95555555555555505</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5B34-4484-A6B8-3D515402887D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1637,7 +1800,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="922971680"/>
         <c:axId val="922968072"/>
       </c:barChart>
@@ -1645,15 +1807,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2'!$B$4</c:f>
+              <c:f>'Q2'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Threshold</c:v>
+                  <c:v>MNIST_Num</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1661,7 +1823,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1672,306 +1834,249 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Q2'!$C$4:$CW$4</c:f>
+              <c:f>'Q2'!$C$6:$CD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9999999999999896E-2</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9999999999999895E-2</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17</c:v>
+                  <c:v>58999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18</c:v>
+                  <c:v>58983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19</c:v>
+                  <c:v>58234</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>55977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21</c:v>
+                  <c:v>53431</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22</c:v>
+                  <c:v>51008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23</c:v>
+                  <c:v>47389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.24</c:v>
+                  <c:v>44782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25</c:v>
+                  <c:v>42158</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.26</c:v>
+                  <c:v>38946</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.27</c:v>
+                  <c:v>36051</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>33257</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>30405</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3</c:v>
+                  <c:v>24800</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.31</c:v>
+                  <c:v>23282</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.32</c:v>
+                  <c:v>21560</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.33</c:v>
+                  <c:v>20296</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.34</c:v>
+                  <c:v>19281</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.35</c:v>
+                  <c:v>17463</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.36</c:v>
+                  <c:v>16893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.37</c:v>
+                  <c:v>16267</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.38</c:v>
+                  <c:v>15714</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.39</c:v>
+                  <c:v>15220</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4</c:v>
+                  <c:v>14723</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.41</c:v>
+                  <c:v>14196</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.42</c:v>
+                  <c:v>13727</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43</c:v>
+                  <c:v>13099</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.44</c:v>
+                  <c:v>12509</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.45</c:v>
+                  <c:v>11988</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.46</c:v>
+                  <c:v>11545</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.47</c:v>
+                  <c:v>10888</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.48</c:v>
+                  <c:v>10395</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.49</c:v>
+                  <c:v>9814</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5</c:v>
+                  <c:v>9161</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.51</c:v>
+                  <c:v>8622</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.52</c:v>
+                  <c:v>7920</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.53</c:v>
+                  <c:v>7267</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.54</c:v>
+                  <c:v>6469</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>5730</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>5069</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>4297</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>3623</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.59</c:v>
+                  <c:v>2989</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.6</c:v>
+                  <c:v>2428</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.61</c:v>
+                  <c:v>1871</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.62</c:v>
+                  <c:v>1328</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.63</c:v>
+                  <c:v>963</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.64</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.65</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.66</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.67</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.68</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.69</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.71</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.72</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.73</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.79</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,20 +2084,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7410-47CE-9BD7-FD95DC796844}"/>
+              <c16:uniqueId val="{00000002-7410-47CE-9BD7-FD95DC796844}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2'!$B$6</c:f>
+              <c:f>'Q2'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>num of Classification</c:v>
+                  <c:v>Fashion_Num</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2000,7 +2105,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2011,240 +2116,240 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Q2'!$C$6:$CW$6</c:f>
+              <c:f>'Q2'!$C$8:$CD$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59750</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59477</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59366</c:v>
+                  <c:v>58818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58982</c:v>
+                  <c:v>57954</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47854</c:v>
+                  <c:v>55722</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39787</c:v>
+                  <c:v>54395</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31165</c:v>
+                  <c:v>53347</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26645</c:v>
+                  <c:v>51943</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24570</c:v>
+                  <c:v>49026</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22145</c:v>
+                  <c:v>45694</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18033</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16765</c:v>
+                  <c:v>42196</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15614</c:v>
+                  <c:v>40109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14602</c:v>
+                  <c:v>37081</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13857</c:v>
+                  <c:v>34929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13561</c:v>
+                  <c:v>32520</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12843</c:v>
+                  <c:v>30411</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12470</c:v>
+                  <c:v>28539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11962</c:v>
+                  <c:v>26626</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11509</c:v>
+                  <c:v>24799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11121</c:v>
+                  <c:v>23169</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10732</c:v>
+                  <c:v>21732</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10459</c:v>
+                  <c:v>20309</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10167</c:v>
+                  <c:v>18957</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9651</c:v>
+                  <c:v>17647</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9202</c:v>
+                  <c:v>16408</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8869</c:v>
+                  <c:v>15137</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8542</c:v>
+                  <c:v>13975</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8283</c:v>
+                  <c:v>12746</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8006</c:v>
+                  <c:v>11786</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7797</c:v>
+                  <c:v>10820</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7545</c:v>
+                  <c:v>10026</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7194</c:v>
+                  <c:v>9051</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6909</c:v>
+                  <c:v>8321</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6679</c:v>
+                  <c:v>7495</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6476</c:v>
+                  <c:v>6796</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6211</c:v>
+                  <c:v>6196</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5883</c:v>
+                  <c:v>5641</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5619</c:v>
+                  <c:v>5159</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5358</c:v>
+                  <c:v>4713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5010</c:v>
+                  <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4843</c:v>
+                  <c:v>3756</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4520</c:v>
+                  <c:v>3279</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4195</c:v>
+                  <c:v>2795</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3600</c:v>
+                  <c:v>2455</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3243</c:v>
+                  <c:v>1915</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2970</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2741</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2407</c:v>
+                  <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2121</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1494</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1348</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1298</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>997</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>891</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>350</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>340</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>340</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>173</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>168</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0</c:v>
@@ -2253,63 +2358,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2318,7 +2366,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7410-47CE-9BD7-FD95DC796844}"/>
+              <c16:uniqueId val="{00000007-5B34-4484-A6B8-3D515402887D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2334,6 +2382,306 @@
         <c:smooth val="0"/>
         <c:axId val="922959216"/>
         <c:axId val="922957248"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Q2'!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Q2'!$C$4:$CD$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="80"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.9999999999999896E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.9999999999999895E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.71</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7410-47CE-9BD7-FD95DC796844}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="922959216"/>
@@ -2383,6 +2731,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2409,7 +2758,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2454,19 +2803,17 @@
         <c:axPos val="r"/>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2509,6 +2856,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2533,12 +2881,1039 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16338254593175852"/>
-          <c:y val="0.91724482356372106"/>
-          <c:w val="0.6732349081364829"/>
-          <c:h val="7.8125546806649182E-2"/>
+          <c:x val="0.25527149815187034"/>
+          <c:y val="0.86628438564240695"/>
+          <c:w val="0.4753973135585452"/>
+          <c:h val="0.10689806869092601"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>EMNIST </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>Threshold </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(26 Class) </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27374477987822365"/>
+          <c:y val="3.7664783427495289E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11392478774161327"/>
+          <c:y val="0.11709981167608288"/>
+          <c:w val="0.81525433814700288"/>
+          <c:h val="0.70936577843023874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$32:$AZ$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999999999999896E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7FF-4FE7-BEC4-F22558A80F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="925484608"/>
+        <c:axId val="833764200"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C7FF-4FE7-BEC4-F22558A80F0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-C7FF-4FE7-BEC4-F22558A80F0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$33:$AZ$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.20832794830371501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20832794830371501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20832794830371501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20832794830371501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20842859132885899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20842859132885899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20842859132885899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20842859132885899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.636093728589046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67286780383795297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70648651953292096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73589084154879203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76943656262667204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79566854990583802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81656240059378604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83908185572018401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84972451790633596</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86574219981090395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87190082644628097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88131107491856597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88783093358104903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89779231398201098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90648854961832004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91533010070869003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92517921146953397</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92914224826851299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93693693693693603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94094794094794099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94618395303326797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94316807738814901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95046439628482904</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95372233400402395</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.947658402203856</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94318181818181801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.936708860759493</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92660550458715596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96969696969696895</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C7FF-4FE7-BEC4-F22558A80F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="925749664"/>
+        <c:axId val="925749992"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num of Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$34:$AZ$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10620</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8234</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6346</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4306</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C7FF-4FE7-BEC4-F22558A80F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="925484608"/>
+        <c:axId val="833764200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="925484608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833764200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="833764200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925484608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="925749992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925749664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="925749664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="925749992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2653,6 +4028,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3711,6 +5126,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3723,7 +5641,7 @@
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3752,15 +5670,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>145189</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3782,6 +5700,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80C4D95-9D4C-4BC0-BC9C-9762BA454282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4089,7 +6045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADB657D-C659-4742-A2D9-916C525DAC9E}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -4484,22 +6440,22 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
         <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
         <v>26</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>27</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4674,24 +6630,24 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -4699,7 +6655,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -4711,15 +6667,15 @@
         <v>99.59</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>15305</v>
@@ -4736,21 +6692,21 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>1000</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>6492</v>
@@ -4764,7 +6720,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -4772,12 +6728,12 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>1000</v>
@@ -4789,15 +6745,15 @@
         <v>66.67</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>46</v>
@@ -4814,7 +6770,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>1000</v>
@@ -4826,15 +6782,15 @@
         <v>33.33</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>51</v>
@@ -4858,10 +6814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6665439-C7D2-471B-A0A9-E7F581BF32C8}">
-  <dimension ref="B2:CW45"/>
+  <dimension ref="B2:CW84"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4869,19 +6825,19 @@
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:101" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:101" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0.01</v>
@@ -5123,271 +7079,214 @@
       <c r="CD4">
         <v>0.8</v>
       </c>
-      <c r="CE4">
-        <v>0.81</v>
-      </c>
-      <c r="CF4">
-        <v>0.82</v>
-      </c>
-      <c r="CG4">
-        <v>0.83</v>
-      </c>
-      <c r="CH4">
-        <v>0.84</v>
-      </c>
-      <c r="CI4">
-        <v>0.85</v>
-      </c>
-      <c r="CJ4">
-        <v>0.86</v>
-      </c>
-      <c r="CK4">
-        <v>0.87</v>
-      </c>
-      <c r="CL4">
-        <v>0.88</v>
-      </c>
-      <c r="CM4">
-        <v>0.89</v>
-      </c>
-      <c r="CN4">
-        <v>0.9</v>
-      </c>
-      <c r="CO4">
-        <v>0.91</v>
-      </c>
-      <c r="CP4">
-        <v>0.92</v>
-      </c>
-      <c r="CQ4">
-        <v>0.93</v>
-      </c>
-      <c r="CR4">
-        <v>0.94</v>
-      </c>
-      <c r="CS4">
-        <v>0.95</v>
-      </c>
-      <c r="CT4">
-        <v>0.96</v>
-      </c>
-      <c r="CU4">
-        <v>0.97</v>
-      </c>
-      <c r="CV4">
-        <v>0.98</v>
-      </c>
-      <c r="CW4">
-        <v>0.99</v>
-      </c>
     </row>
-    <row r="5" spans="2:101" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="D5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="E5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="F5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="G5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="H5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="I5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="J5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="K5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="L5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="M5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="N5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="O5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="P5">
-        <v>0.37035983263598299</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="Q5">
-        <v>0.36866351698976002</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="R5">
-        <v>0.36876326516861502</v>
+        <v>0.50049152542372799</v>
       </c>
       <c r="S5">
-        <v>0.36858702655047298</v>
+        <v>0.50048305903489798</v>
       </c>
       <c r="T5">
-        <v>0.45057884398378401</v>
+        <v>0.50060186833494402</v>
       </c>
       <c r="U5">
-        <v>0.51373564229522195</v>
+        <v>0.50549507160765095</v>
       </c>
       <c r="V5">
-        <v>0.59419220279159302</v>
+        <v>0.51903460349786501</v>
       </c>
       <c r="W5">
-        <v>0.64766372677800699</v>
+        <v>0.53519492429488502</v>
       </c>
       <c r="X5">
-        <v>0.67533577533577505</v>
+        <v>0.551835006273525</v>
       </c>
       <c r="Y5">
-        <v>0.71867238654323695</v>
+        <v>0.58534681044124104</v>
       </c>
       <c r="Z5">
-        <v>0.79964509510342097</v>
+        <v>0.60783350453307095</v>
       </c>
       <c r="AA5">
-        <v>0.83048016701461302</v>
+        <v>0.63200341572180796</v>
       </c>
       <c r="AB5">
-        <v>0.85743563468681905</v>
+        <v>0.66759102346839205</v>
       </c>
       <c r="AC5">
-        <v>0.88686481303930897</v>
+        <v>0.70256026185126597</v>
       </c>
       <c r="AD5">
-        <v>0.90466912030020896</v>
+        <v>0.72574194906335499</v>
       </c>
       <c r="AE5">
-        <v>0.90974116953026996</v>
+        <v>0.75556651866469304</v>
       </c>
       <c r="AF5">
-        <v>0.91582963482052404</v>
+        <v>0.88802419354838702</v>
       </c>
       <c r="AG5">
-        <v>0.91900561347233301</v>
+        <v>0.910746499441628</v>
       </c>
       <c r="AH5">
-        <v>0.93103160006687802</v>
+        <v>0.92230983302411795</v>
       </c>
       <c r="AI5">
-        <v>0.94439134590320595</v>
+        <v>0.942747339377217</v>
       </c>
       <c r="AJ5">
-        <v>0.94901537631507904</v>
+        <v>0.95098801929360499</v>
       </c>
       <c r="AK5">
-        <v>0.94968319045844196</v>
+        <v>0.95602130218175496</v>
       </c>
       <c r="AL5">
-        <v>0.950664499474137</v>
+        <v>0.96454152607588906</v>
       </c>
       <c r="AM5">
-        <v>0.95564079866233897</v>
+        <v>0.97239810659617598</v>
       </c>
       <c r="AN5">
-        <v>0.96746451144959</v>
+        <v>0.97588137966144795</v>
       </c>
       <c r="AO5">
-        <v>0.97576613779613097</v>
+        <v>0.98206307490144495</v>
       </c>
       <c r="AP5">
-        <v>0.98771000112752205</v>
+        <v>0.98682333763499197</v>
       </c>
       <c r="AQ5">
-        <v>0.98993210021072298</v>
+        <v>0.98858833474218</v>
       </c>
       <c r="AR5">
-        <v>0.99106603887480305</v>
+        <v>0.99009251839440504</v>
       </c>
       <c r="AS5">
-        <v>0.99362977766674998</v>
+        <v>0.99366363844568195</v>
       </c>
       <c r="AT5">
-        <v>0.99448505835577705</v>
+        <v>0.99520345351346995</v>
       </c>
       <c r="AU5">
-        <v>0.99483101391650097</v>
+        <v>0.99582916249582898</v>
       </c>
       <c r="AV5">
-        <v>0.99513483458437502</v>
+        <v>0.99610220874837596</v>
       </c>
       <c r="AW5">
-        <v>0.99565783760312598</v>
+        <v>0.99641807494489298</v>
       </c>
       <c r="AX5">
-        <v>0.99640664770175102</v>
+        <v>0.99692159692159599</v>
       </c>
       <c r="AY5">
-        <v>0.99691167387276003</v>
+        <v>0.99704503770124298</v>
       </c>
       <c r="AZ5">
-        <v>0.99758492996296799</v>
+        <v>0.99705272350180096</v>
       </c>
       <c r="BA5">
-        <v>0.99847016828148905</v>
+        <v>0.99710044073300796</v>
       </c>
       <c r="BB5">
-        <v>0.99839829151094495</v>
+        <v>0.99747474747474696</v>
       </c>
       <c r="BC5">
-        <v>0.99906681597611002</v>
+        <v>0.997798266134581</v>
       </c>
       <c r="BD5">
-        <v>0.99920159680638698</v>
+        <v>0.99799041582933901</v>
       </c>
       <c r="BE5">
-        <v>0.99917406566177902</v>
+        <v>0.99808027923211096</v>
       </c>
       <c r="BF5">
-        <v>0.99933628318584</v>
+        <v>0.99822450187413603</v>
       </c>
       <c r="BG5">
-        <v>0.99952324195470799</v>
+        <v>0.99813823597858897</v>
       </c>
       <c r="BH5">
-        <v>0.99944444444444402</v>
+        <v>0.99806789953077502</v>
       </c>
       <c r="BI5">
-        <v>0.99938328707986401</v>
+        <v>0.99799263967882201</v>
       </c>
       <c r="BJ5">
-        <v>0.99932659932659895</v>
+        <v>0.99835255354200902</v>
       </c>
       <c r="BK5">
-        <v>0.99927033929222897</v>
+        <v>0.99893105291287998</v>
       </c>
       <c r="BL5">
-        <v>0.99916909015371802</v>
+        <v>0.998493975903614</v>
       </c>
       <c r="BM5">
-        <v>0.99905704856199895</v>
+        <v>0.99896157840083</v>
       </c>
       <c r="BN5">
-        <v>0.99933065595716197</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.999258160237388</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.999229583975346</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.99899699097291805</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.99887766554433199</v>
+        <v>1</v>
       </c>
       <c r="BS5">
         <v>1</v>
@@ -5402,1093 +7301,2209 @@
         <v>1</v>
       </c>
       <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>59000</v>
+      </c>
+      <c r="D6">
+        <v>59000</v>
+      </c>
+      <c r="E6">
+        <v>59000</v>
+      </c>
+      <c r="F6">
+        <v>59000</v>
+      </c>
+      <c r="G6">
+        <v>59000</v>
+      </c>
+      <c r="H6">
+        <v>59000</v>
+      </c>
+      <c r="I6">
+        <v>59000</v>
+      </c>
+      <c r="J6">
+        <v>59000</v>
+      </c>
+      <c r="K6">
+        <v>59000</v>
+      </c>
+      <c r="L6">
+        <v>59000</v>
+      </c>
+      <c r="M6">
+        <v>59000</v>
+      </c>
+      <c r="N6">
+        <v>59000</v>
+      </c>
+      <c r="O6">
+        <v>59000</v>
+      </c>
+      <c r="P6">
+        <v>59000</v>
+      </c>
+      <c r="Q6">
+        <v>59000</v>
+      </c>
+      <c r="R6">
+        <v>59000</v>
+      </c>
+      <c r="S6">
+        <v>58999</v>
+      </c>
+      <c r="T6">
+        <v>58983</v>
+      </c>
+      <c r="U6">
+        <v>58234</v>
+      </c>
+      <c r="V6">
+        <v>55977</v>
+      </c>
+      <c r="W6">
+        <v>53431</v>
+      </c>
+      <c r="X6">
+        <v>51008</v>
+      </c>
+      <c r="Y6">
+        <v>47389</v>
+      </c>
+      <c r="Z6">
+        <v>44782</v>
+      </c>
+      <c r="AA6">
+        <v>42158</v>
+      </c>
+      <c r="AB6">
+        <v>38946</v>
+      </c>
+      <c r="AC6">
+        <v>36051</v>
+      </c>
+      <c r="AD6">
+        <v>33257</v>
+      </c>
+      <c r="AE6">
+        <v>30405</v>
+      </c>
+      <c r="AF6">
+        <v>24800</v>
+      </c>
+      <c r="AG6">
+        <v>23282</v>
+      </c>
+      <c r="AH6">
+        <v>21560</v>
+      </c>
+      <c r="AI6">
+        <v>20296</v>
+      </c>
+      <c r="AJ6">
+        <v>19281</v>
+      </c>
+      <c r="AK6">
+        <v>17463</v>
+      </c>
+      <c r="AL6">
+        <v>16893</v>
+      </c>
+      <c r="AM6">
+        <v>16267</v>
+      </c>
+      <c r="AN6">
+        <v>15714</v>
+      </c>
+      <c r="AO6">
+        <v>15220</v>
+      </c>
+      <c r="AP6">
+        <v>14723</v>
+      </c>
+      <c r="AQ6">
+        <v>14196</v>
+      </c>
+      <c r="AR6">
+        <v>13727</v>
+      </c>
+      <c r="AS6">
+        <v>13099</v>
+      </c>
+      <c r="AT6">
+        <v>12509</v>
+      </c>
+      <c r="AU6">
+        <v>11988</v>
+      </c>
+      <c r="AV6">
+        <v>11545</v>
+      </c>
+      <c r="AW6">
+        <v>10888</v>
+      </c>
+      <c r="AX6">
+        <v>10395</v>
+      </c>
+      <c r="AY6">
+        <v>9814</v>
+      </c>
+      <c r="AZ6">
+        <v>9161</v>
+      </c>
+      <c r="BA6">
+        <v>8622</v>
+      </c>
+      <c r="BB6">
+        <v>7920</v>
+      </c>
+      <c r="BC6">
+        <v>7267</v>
+      </c>
+      <c r="BD6">
+        <v>6469</v>
+      </c>
+      <c r="BE6">
+        <v>5730</v>
+      </c>
+      <c r="BF6">
+        <v>5069</v>
+      </c>
+      <c r="BG6">
+        <v>4297</v>
+      </c>
+      <c r="BH6">
+        <v>3623</v>
+      </c>
+      <c r="BI6">
+        <v>2989</v>
+      </c>
+      <c r="BJ6">
+        <v>2428</v>
+      </c>
+      <c r="BK6">
+        <v>1871</v>
+      </c>
+      <c r="BL6">
+        <v>1328</v>
+      </c>
+      <c r="BM6">
+        <v>963</v>
+      </c>
+      <c r="BN6">
+        <v>720</v>
+      </c>
+      <c r="BO6">
+        <v>484</v>
+      </c>
+      <c r="BP6">
+        <v>334</v>
+      </c>
+      <c r="BQ6">
+        <v>178</v>
+      </c>
+      <c r="BR6">
+        <v>98</v>
+      </c>
+      <c r="BS6">
+        <v>48</v>
+      </c>
+      <c r="BT6">
+        <v>17</v>
+      </c>
+      <c r="BU6">
+        <v>11</v>
+      </c>
+      <c r="BV6">
         <v>1</v>
       </c>
-      <c r="BX5">
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="D7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="E7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="F7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="G7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="H7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="I7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="J7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="K7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="L7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="M7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="N7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="O7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="P7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="Q7">
+        <v>0.50422033898304996</v>
+      </c>
+      <c r="R7">
+        <v>0.50397837396715295</v>
+      </c>
+      <c r="S7">
+        <v>0.50272630016909903</v>
+      </c>
+      <c r="T7">
+        <v>0.50904490147518</v>
+      </c>
+      <c r="U7">
+        <v>0.51383399209486103</v>
+      </c>
+      <c r="V7">
+        <v>0.51631769359101698</v>
+      </c>
+      <c r="W7">
+        <v>0.52574937912712005</v>
+      </c>
+      <c r="X7">
+        <v>0.55013666217925095</v>
+      </c>
+      <c r="Y7">
+        <v>0.57917888563049802</v>
+      </c>
+      <c r="Z7">
+        <v>0.58801992131535197</v>
+      </c>
+      <c r="AA7">
+        <v>0.59875343634467704</v>
+      </c>
+      <c r="AB7">
+        <v>0.60517589568426</v>
+      </c>
+      <c r="AC7">
+        <v>0.61465440522100201</v>
+      </c>
+      <c r="AD7">
+        <v>0.62037275616250098</v>
+      </c>
+      <c r="AE7">
+        <v>0.62816728167281599</v>
+      </c>
+      <c r="AF7">
+        <v>0.63654598664956696</v>
+      </c>
+      <c r="AG7">
+        <v>0.64550264550264502</v>
+      </c>
+      <c r="AH7">
+        <v>0.65804101254412894</v>
+      </c>
+      <c r="AI7">
+        <v>0.67163998548328496</v>
+      </c>
+      <c r="AJ7">
+        <v>0.68444904829729303</v>
+      </c>
+      <c r="AK7">
+        <v>0.69464384318056305</v>
+      </c>
+      <c r="AL7">
+        <v>0.70830666207100301</v>
+      </c>
+      <c r="AM7">
+        <v>0.72047264862583704</v>
+      </c>
+      <c r="AN7">
+        <v>0.73559245197483902</v>
+      </c>
+      <c r="AO7">
+        <v>0.74628230131643103</v>
+      </c>
+      <c r="AP7">
+        <v>0.76706084428882804</v>
+      </c>
+      <c r="AQ7">
+        <v>0.77602862254024996</v>
+      </c>
+      <c r="AR7">
+        <v>0.79499450808096594</v>
+      </c>
+      <c r="AS7">
+        <v>0.80247751569658898</v>
+      </c>
+      <c r="AT7">
+        <v>0.81913123844731905</v>
+      </c>
+      <c r="AU7">
+        <v>0.83173748254538205</v>
+      </c>
+      <c r="AV7">
+        <v>0.84786211468345996</v>
+      </c>
+      <c r="AW7">
+        <v>0.85891118855906701</v>
+      </c>
+      <c r="AX7">
+        <v>0.87765176784523002</v>
+      </c>
+      <c r="AY7">
+        <v>0.89567392583872796</v>
+      </c>
+      <c r="AZ7">
+        <v>0.90251775338928297</v>
+      </c>
+      <c r="BA7">
+        <v>0.90480411274596695</v>
+      </c>
+      <c r="BB7">
+        <v>0.90385733669315704</v>
+      </c>
+      <c r="BC7">
+        <v>0.908762995968597</v>
+      </c>
+      <c r="BD7">
+        <v>0.90978338490835498</v>
+      </c>
+      <c r="BE7">
+        <v>0.91187433439829602</v>
+      </c>
+      <c r="BF7">
+        <v>0.91460811222933802</v>
+      </c>
+      <c r="BG7">
+        <v>0.91198568872987396</v>
+      </c>
+      <c r="BH7">
+        <v>0.91731160896130304</v>
+      </c>
+      <c r="BI7">
+        <v>0.91279373368146199</v>
+      </c>
+      <c r="BJ7">
+        <v>0.91625000000000001</v>
+      </c>
+      <c r="BK7">
+        <v>0.91487603305785103</v>
+      </c>
+      <c r="BL7">
+        <v>0.91843220338983</v>
+      </c>
+      <c r="BM7">
+        <v>0.92711370262390602</v>
+      </c>
+      <c r="BN7">
+        <v>0.92110874200426396</v>
+      </c>
+      <c r="BO7">
+        <v>0.90962099125364404</v>
+      </c>
+      <c r="BP7">
+        <v>0.94372294372294296</v>
+      </c>
+      <c r="BQ7">
+        <v>0.95104895104895104</v>
+      </c>
+      <c r="BR7">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="BS7">
+        <v>0.97368421052631504</v>
+      </c>
+      <c r="BT7">
         <v>1</v>
       </c>
-      <c r="BY5">
+      <c r="BU7">
         <v>1</v>
       </c>
-      <c r="BZ5">
+      <c r="BV7">
         <v>1</v>
       </c>
-      <c r="CA5">
+      <c r="BW7">
         <v>1</v>
       </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="8" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>59000</v>
+      </c>
+      <c r="D8">
+        <v>59000</v>
+      </c>
+      <c r="E8">
+        <v>59000</v>
+      </c>
+      <c r="F8">
+        <v>59000</v>
+      </c>
+      <c r="G8">
+        <v>59000</v>
+      </c>
+      <c r="H8">
+        <v>59000</v>
+      </c>
+      <c r="I8">
+        <v>59000</v>
+      </c>
+      <c r="J8">
+        <v>59000</v>
+      </c>
+      <c r="K8">
+        <v>59000</v>
+      </c>
+      <c r="L8">
+        <v>59000</v>
+      </c>
+      <c r="M8">
+        <v>59000</v>
+      </c>
+      <c r="N8">
+        <v>59000</v>
+      </c>
+      <c r="O8">
+        <v>59000</v>
+      </c>
+      <c r="P8">
+        <v>59000</v>
+      </c>
+      <c r="Q8">
+        <v>59000</v>
+      </c>
+      <c r="R8">
+        <v>58818</v>
+      </c>
+      <c r="S8">
+        <v>57954</v>
+      </c>
+      <c r="T8">
+        <v>55722</v>
+      </c>
+      <c r="U8">
+        <v>54395</v>
+      </c>
+      <c r="V8">
+        <v>53347</v>
+      </c>
+      <c r="W8">
+        <v>51943</v>
+      </c>
+      <c r="X8">
+        <v>49026</v>
+      </c>
+      <c r="Y8">
+        <v>45694</v>
+      </c>
+      <c r="Z8">
+        <v>43973</v>
+      </c>
+      <c r="AA8">
+        <v>42196</v>
+      </c>
+      <c r="AB8">
+        <v>40109</v>
+      </c>
+      <c r="AC8">
+        <v>37081</v>
+      </c>
+      <c r="AD8">
+        <v>34929</v>
+      </c>
+      <c r="AE8">
+        <v>32520</v>
+      </c>
+      <c r="AF8">
+        <v>30411</v>
+      </c>
+      <c r="AG8">
+        <v>28539</v>
+      </c>
+      <c r="AH8">
+        <v>26626</v>
+      </c>
+      <c r="AI8">
+        <v>24799</v>
+      </c>
+      <c r="AJ8">
+        <v>23169</v>
+      </c>
+      <c r="AK8">
+        <v>21732</v>
+      </c>
+      <c r="AL8">
+        <v>20309</v>
+      </c>
+      <c r="AM8">
+        <v>18957</v>
+      </c>
+      <c r="AN8">
+        <v>17647</v>
+      </c>
+      <c r="AO8">
+        <v>16408</v>
+      </c>
+      <c r="AP8">
+        <v>15137</v>
+      </c>
+      <c r="AQ8">
+        <v>13975</v>
+      </c>
+      <c r="AR8">
+        <v>12746</v>
+      </c>
+      <c r="AS8">
+        <v>11786</v>
+      </c>
+      <c r="AT8">
+        <v>10820</v>
+      </c>
+      <c r="AU8">
+        <v>10026</v>
+      </c>
+      <c r="AV8">
+        <v>9051</v>
+      </c>
+      <c r="AW8">
+        <v>8321</v>
+      </c>
+      <c r="AX8">
+        <v>7495</v>
+      </c>
+      <c r="AY8">
+        <v>6796</v>
+      </c>
+      <c r="AZ8">
+        <v>6196</v>
+      </c>
+      <c r="BA8">
+        <v>5641</v>
+      </c>
+      <c r="BB8">
+        <v>5159</v>
+      </c>
+      <c r="BC8">
+        <v>4713</v>
+      </c>
+      <c r="BD8">
+        <v>4201</v>
+      </c>
+      <c r="BE8">
+        <v>3756</v>
+      </c>
+      <c r="BF8">
+        <v>3279</v>
+      </c>
+      <c r="BG8">
+        <v>2795</v>
+      </c>
+      <c r="BH8">
+        <v>2455</v>
+      </c>
+      <c r="BI8">
+        <v>1915</v>
+      </c>
+      <c r="BJ8">
+        <v>1600</v>
+      </c>
+      <c r="BK8">
+        <v>1210</v>
+      </c>
+      <c r="BL8">
+        <v>944</v>
+      </c>
+      <c r="BM8">
+        <v>686</v>
+      </c>
+      <c r="BN8">
+        <v>469</v>
+      </c>
+      <c r="BO8">
+        <v>343</v>
+      </c>
+      <c r="BP8">
+        <v>231</v>
+      </c>
+      <c r="BQ8">
+        <v>143</v>
+      </c>
+      <c r="BR8">
+        <v>90</v>
+      </c>
+      <c r="BS8">
+        <v>38</v>
+      </c>
+      <c r="BT8">
+        <v>23</v>
+      </c>
+      <c r="BU8">
+        <v>7</v>
+      </c>
+      <c r="BV8">
+        <v>3</v>
+      </c>
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>59750</v>
-      </c>
-      <c r="D6">
-        <v>59750</v>
-      </c>
-      <c r="E6">
-        <v>59750</v>
-      </c>
-      <c r="F6">
-        <v>59750</v>
-      </c>
-      <c r="G6">
-        <v>59750</v>
-      </c>
-      <c r="H6">
-        <v>59750</v>
-      </c>
-      <c r="I6">
-        <v>59750</v>
-      </c>
-      <c r="J6">
-        <v>59750</v>
-      </c>
-      <c r="K6">
-        <v>59750</v>
-      </c>
-      <c r="L6">
-        <v>59750</v>
-      </c>
-      <c r="M6">
-        <v>59750</v>
-      </c>
-      <c r="N6">
-        <v>59750</v>
-      </c>
-      <c r="O6">
-        <v>59750</v>
-      </c>
-      <c r="P6">
-        <v>59750</v>
-      </c>
-      <c r="Q6">
-        <v>59477</v>
-      </c>
-      <c r="R6">
-        <v>59366</v>
-      </c>
-      <c r="S6">
-        <v>58982</v>
-      </c>
-      <c r="T6">
-        <v>47854</v>
-      </c>
-      <c r="U6">
-        <v>39787</v>
-      </c>
-      <c r="V6">
-        <v>31165</v>
-      </c>
-      <c r="W6">
-        <v>26645</v>
-      </c>
-      <c r="X6">
-        <v>24570</v>
-      </c>
-      <c r="Y6">
-        <v>22145</v>
-      </c>
-      <c r="Z6">
-        <v>18033</v>
-      </c>
-      <c r="AA6">
-        <v>16765</v>
-      </c>
-      <c r="AB6">
-        <v>15614</v>
-      </c>
-      <c r="AC6">
-        <v>14602</v>
-      </c>
-      <c r="AD6">
-        <v>13857</v>
-      </c>
-      <c r="AE6">
-        <v>13561</v>
-      </c>
-      <c r="AF6">
-        <v>12843</v>
-      </c>
-      <c r="AG6">
-        <v>12470</v>
-      </c>
-      <c r="AH6">
-        <v>11962</v>
-      </c>
-      <c r="AI6">
-        <v>11509</v>
-      </c>
-      <c r="AJ6">
-        <v>11121</v>
-      </c>
-      <c r="AK6">
-        <v>10732</v>
-      </c>
-      <c r="AL6">
-        <v>10459</v>
-      </c>
-      <c r="AM6">
-        <v>10167</v>
-      </c>
-      <c r="AN6">
-        <v>9651</v>
-      </c>
-      <c r="AO6">
-        <v>9202</v>
-      </c>
-      <c r="AP6">
-        <v>8869</v>
-      </c>
-      <c r="AQ6">
-        <v>8542</v>
-      </c>
-      <c r="AR6">
-        <v>8283</v>
-      </c>
-      <c r="AS6">
-        <v>8006</v>
-      </c>
-      <c r="AT6">
-        <v>7797</v>
-      </c>
-      <c r="AU6">
-        <v>7545</v>
-      </c>
-      <c r="AV6">
-        <v>7194</v>
-      </c>
-      <c r="AW6">
-        <v>6909</v>
-      </c>
-      <c r="AX6">
-        <v>6679</v>
-      </c>
-      <c r="AY6">
-        <v>6476</v>
-      </c>
-      <c r="AZ6">
-        <v>6211</v>
-      </c>
-      <c r="BA6">
-        <v>5883</v>
-      </c>
-      <c r="BB6">
-        <v>5619</v>
-      </c>
-      <c r="BC6">
-        <v>5358</v>
-      </c>
-      <c r="BD6">
-        <v>5010</v>
-      </c>
-      <c r="BE6">
-        <v>4843</v>
-      </c>
-      <c r="BF6">
-        <v>4520</v>
-      </c>
-      <c r="BG6">
-        <v>4195</v>
-      </c>
-      <c r="BH6">
-        <v>3600</v>
-      </c>
-      <c r="BI6">
-        <v>3243</v>
-      </c>
-      <c r="BJ6">
-        <v>2970</v>
-      </c>
-      <c r="BK6">
-        <v>2741</v>
-      </c>
-      <c r="BL6">
-        <v>2407</v>
-      </c>
-      <c r="BM6">
-        <v>2121</v>
-      </c>
-      <c r="BN6">
-        <v>1494</v>
-      </c>
-      <c r="BO6">
-        <v>1348</v>
-      </c>
-      <c r="BP6">
-        <v>1298</v>
-      </c>
-      <c r="BQ6">
-        <v>997</v>
-      </c>
-      <c r="BR6">
-        <v>891</v>
-      </c>
-      <c r="BS6">
-        <v>350</v>
-      </c>
-      <c r="BT6">
-        <v>340</v>
-      </c>
-      <c r="BU6">
-        <v>340</v>
-      </c>
-      <c r="BV6">
-        <v>173</v>
-      </c>
-      <c r="BW6">
-        <v>168</v>
-      </c>
-      <c r="BX6">
-        <v>30</v>
-      </c>
-      <c r="BY6">
-        <v>24</v>
-      </c>
-      <c r="BZ6">
-        <v>24</v>
-      </c>
-      <c r="CA6">
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="D32">
+        <v>0.02</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
+      </c>
+      <c r="G32">
+        <v>0.05</v>
+      </c>
+      <c r="H32">
+        <v>0.06</v>
+      </c>
+      <c r="I32">
+        <v>6.9999999999999896E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.08</v>
+      </c>
+      <c r="K32">
+        <v>0.09</v>
+      </c>
+      <c r="L32">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="M32">
+        <v>0.11</v>
+      </c>
+      <c r="N32">
+        <v>0.12</v>
+      </c>
+      <c r="O32">
+        <v>0.13</v>
+      </c>
+      <c r="P32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.15</v>
+      </c>
+      <c r="R32">
+        <v>0.16</v>
+      </c>
+      <c r="S32">
+        <v>0.17</v>
+      </c>
+      <c r="T32">
+        <v>0.18</v>
+      </c>
+      <c r="U32">
+        <v>0.19</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.21</v>
+      </c>
+      <c r="X32">
+        <v>0.22</v>
+      </c>
+      <c r="Y32">
+        <v>0.23</v>
+      </c>
+      <c r="Z32">
+        <v>0.24</v>
+      </c>
+      <c r="AA32">
+        <v>0.25</v>
+      </c>
+      <c r="AB32">
+        <v>0.26</v>
+      </c>
+      <c r="AC32">
+        <v>0.27</v>
+      </c>
+      <c r="AD32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF32">
+        <v>0.3</v>
+      </c>
+      <c r="AG32">
+        <v>0.31</v>
+      </c>
+      <c r="AH32">
+        <v>0.32</v>
+      </c>
+      <c r="AI32">
+        <v>0.33</v>
+      </c>
+      <c r="AJ32">
+        <v>0.34</v>
+      </c>
+      <c r="AK32">
+        <v>0.35</v>
+      </c>
+      <c r="AL32">
+        <v>0.36</v>
+      </c>
+      <c r="AM32">
+        <v>0.37</v>
+      </c>
+      <c r="AN32">
+        <v>0.38</v>
+      </c>
+      <c r="AO32">
+        <v>0.39</v>
+      </c>
+      <c r="AP32">
+        <v>0.4</v>
+      </c>
+      <c r="AQ32">
+        <v>0.41</v>
+      </c>
+      <c r="AR32">
+        <v>0.42</v>
+      </c>
+      <c r="AS32">
+        <v>0.43</v>
+      </c>
+      <c r="AT32">
+        <v>0.44</v>
+      </c>
+      <c r="AU32">
+        <v>0.45</v>
+      </c>
+      <c r="AV32">
+        <v>0.46</v>
+      </c>
+      <c r="AW32">
+        <v>0.47</v>
+      </c>
+      <c r="AX32">
+        <v>0.48</v>
+      </c>
+      <c r="AY32">
+        <v>0.49</v>
+      </c>
+      <c r="AZ32">
+        <v>0.5</v>
+      </c>
+      <c r="BA32">
+        <v>0.51</v>
+      </c>
+      <c r="BB32">
+        <v>0.52</v>
+      </c>
+      <c r="BC32">
+        <v>0.53</v>
+      </c>
+      <c r="BD32">
+        <v>0.54</v>
+      </c>
+      <c r="BE32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BF32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BG32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BH32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BI32">
+        <v>0.59</v>
+      </c>
+      <c r="BJ32">
+        <v>0.6</v>
+      </c>
+      <c r="BK32">
+        <v>0.61</v>
+      </c>
+      <c r="BL32">
+        <v>0.62</v>
+      </c>
+      <c r="BM32">
+        <v>0.63</v>
+      </c>
+      <c r="BN32">
+        <v>0.64</v>
+      </c>
+      <c r="BO32">
+        <v>0.65</v>
+      </c>
+      <c r="BP32">
+        <v>0.66</v>
+      </c>
+      <c r="BQ32">
+        <v>0.67</v>
+      </c>
+      <c r="BR32">
+        <v>0.68</v>
+      </c>
+      <c r="BS32">
+        <v>0.69</v>
+      </c>
+      <c r="BT32">
+        <v>0.7</v>
+      </c>
+      <c r="BU32">
+        <v>0.71</v>
+      </c>
+      <c r="BV32">
+        <v>0.72</v>
+      </c>
+      <c r="BW32">
+        <v>0.73</v>
+      </c>
+      <c r="BX32">
+        <v>0.74</v>
+      </c>
+      <c r="BY32">
+        <v>0.75</v>
+      </c>
+      <c r="BZ32">
+        <v>0.76</v>
+      </c>
+      <c r="CA32">
+        <v>0.77</v>
+      </c>
+      <c r="CB32">
+        <v>0.78</v>
+      </c>
+      <c r="CC32">
+        <v>0.79</v>
+      </c>
+      <c r="CD32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>0.20832794830371501</v>
+      </c>
+      <c r="D33">
+        <v>0.20832794830371501</v>
+      </c>
+      <c r="E33">
+        <v>0.20832794830371501</v>
+      </c>
+      <c r="F33">
+        <v>0.20832794830371501</v>
+      </c>
+      <c r="G33">
+        <v>0.20842859132885899</v>
+      </c>
+      <c r="H33">
+        <v>0.20842859132885899</v>
+      </c>
+      <c r="I33">
+        <v>0.20842859132885899</v>
+      </c>
+      <c r="J33">
+        <v>0.20842859132885899</v>
+      </c>
+      <c r="K33">
+        <v>0.636093728589046</v>
+      </c>
+      <c r="L33">
+        <v>0.67286780383795297</v>
+      </c>
+      <c r="M33">
+        <v>0.70648651953292096</v>
+      </c>
+      <c r="N33">
+        <v>0.73589084154879203</v>
+      </c>
+      <c r="O33">
+        <v>0.76943656262667204</v>
+      </c>
+      <c r="P33">
+        <v>0.79566854990583802</v>
+      </c>
+      <c r="Q33">
+        <v>0.81656240059378604</v>
+      </c>
+      <c r="R33">
+        <v>0.83908185572018401</v>
+      </c>
+      <c r="S33">
+        <v>0.84972451790633596</v>
+      </c>
+      <c r="T33">
+        <v>0.86574219981090395</v>
+      </c>
+      <c r="U33">
+        <v>0.87190082644628097</v>
+      </c>
+      <c r="V33">
+        <v>0.88131107491856597</v>
+      </c>
+      <c r="W33">
+        <v>0.88783093358104903</v>
+      </c>
+      <c r="X33">
+        <v>0.89779231398201098</v>
+      </c>
+      <c r="Y33">
+        <v>0.90648854961832004</v>
+      </c>
+      <c r="Z33">
+        <v>0.91533010070869003</v>
+      </c>
+      <c r="AA33">
+        <v>0.92517921146953397</v>
+      </c>
+      <c r="AB33">
+        <v>0.92914224826851299</v>
+      </c>
+      <c r="AC33">
+        <v>0.93693693693693603</v>
+      </c>
+      <c r="AD33">
+        <v>0.94094794094794099</v>
+      </c>
+      <c r="AE33">
+        <v>0.94618395303326797</v>
+      </c>
+      <c r="AF33">
+        <v>0.94316807738814901</v>
+      </c>
+      <c r="AG33">
+        <v>0.95046439628482904</v>
+      </c>
+      <c r="AH33">
+        <v>0.95372233400402395</v>
+      </c>
+      <c r="AI33">
+        <v>0.947658402203856</v>
+      </c>
+      <c r="AJ33">
+        <v>0.94318181818181801</v>
+      </c>
+      <c r="AK33">
+        <v>0.936708860759493</v>
+      </c>
+      <c r="AL33">
+        <v>0.92660550458715596</v>
+      </c>
+      <c r="AM33">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="AN33">
+        <v>0.96969696969696895</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>0</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
+      <c r="CC33">
+        <v>0</v>
+      </c>
+      <c r="CD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>123800</v>
+      </c>
+      <c r="D34">
+        <v>123800</v>
+      </c>
+      <c r="E34">
+        <v>123800</v>
+      </c>
+      <c r="F34">
+        <v>123800</v>
+      </c>
+      <c r="G34">
+        <v>122037</v>
+      </c>
+      <c r="H34">
+        <v>112441</v>
+      </c>
+      <c r="I34">
+        <v>97814</v>
+      </c>
+      <c r="J34">
+        <v>86492</v>
+      </c>
+      <c r="K34">
+        <v>21893</v>
+      </c>
+      <c r="L34">
+        <v>18760</v>
+      </c>
+      <c r="M34">
+        <v>16357</v>
+      </c>
+      <c r="N34">
+        <v>13998</v>
+      </c>
+      <c r="O34">
+        <v>12335</v>
+      </c>
+      <c r="P34">
+        <v>10620</v>
+      </c>
+      <c r="Q34">
+        <v>9431</v>
+      </c>
+      <c r="R34">
+        <v>8234</v>
+      </c>
+      <c r="S34">
+        <v>7260</v>
+      </c>
+      <c r="T34">
+        <v>6346</v>
+      </c>
+      <c r="U34">
+        <v>5566</v>
+      </c>
+      <c r="V34">
+        <v>4912</v>
+      </c>
+      <c r="W34">
+        <v>4306</v>
+      </c>
+      <c r="X34">
+        <v>3669</v>
+      </c>
+      <c r="Y34">
+        <v>3144</v>
+      </c>
+      <c r="Z34">
+        <v>2681</v>
+      </c>
+      <c r="AA34">
+        <v>2232</v>
+      </c>
+      <c r="AB34">
+        <v>1877</v>
+      </c>
+      <c r="AC34">
+        <v>1554</v>
+      </c>
+      <c r="AD34">
+        <v>1287</v>
+      </c>
+      <c r="AE34">
+        <v>1022</v>
+      </c>
+      <c r="AF34">
+        <v>827</v>
+      </c>
+      <c r="AG34">
+        <v>646</v>
+      </c>
+      <c r="AH34">
+        <v>497</v>
+      </c>
+      <c r="AI34">
+        <v>363</v>
+      </c>
+      <c r="AJ34">
+        <v>264</v>
+      </c>
+      <c r="AK34">
+        <v>158</v>
+      </c>
+      <c r="AL34">
+        <v>109</v>
+      </c>
+      <c r="AM34">
+        <v>60</v>
+      </c>
+      <c r="AN34">
+        <v>33</v>
+      </c>
+      <c r="AO34">
+        <v>15</v>
+      </c>
+      <c r="AP34">
+        <v>9</v>
+      </c>
+      <c r="AQ34">
+        <v>4</v>
+      </c>
+      <c r="AR34">
         <v>3</v>
       </c>
-      <c r="CB6">
-        <v>0</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
+      <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+      <c r="BY34">
+        <v>0</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
+      <c r="CB34">
+        <v>0</v>
+      </c>
+      <c r="CC34">
+        <v>0</v>
+      </c>
+      <c r="CD34">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="68" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>25</v>
+    <row r="70" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>24</v>
+    <row r="71" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>20</v>
+    <row r="72" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="74" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
-      </c>
-      <c r="J31">
-        <v>7</v>
-      </c>
-      <c r="K31">
-        <v>8</v>
-      </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>18</v>
+    <row r="75" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>16</v>
+    <row r="76" spans="2:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>0.01</v>
+      </c>
+      <c r="D76">
+        <v>0.02</v>
+      </c>
+      <c r="E76">
+        <v>0.03</v>
+      </c>
+      <c r="F76">
+        <v>0.04</v>
+      </c>
+      <c r="G76">
+        <v>0.05</v>
+      </c>
+      <c r="H76">
+        <v>0.06</v>
+      </c>
+      <c r="I76">
+        <v>6.9999999999999896E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.08</v>
+      </c>
+      <c r="K76">
+        <v>0.09</v>
+      </c>
+      <c r="L76">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="M76">
+        <v>0.11</v>
+      </c>
+      <c r="N76">
+        <v>0.12</v>
+      </c>
+      <c r="O76">
+        <v>0.13</v>
+      </c>
+      <c r="P76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q76">
+        <v>0.15</v>
+      </c>
+      <c r="R76">
+        <v>0.16</v>
+      </c>
+      <c r="S76">
+        <v>0.17</v>
+      </c>
+      <c r="T76">
+        <v>0.18</v>
+      </c>
+      <c r="U76">
+        <v>0.19</v>
+      </c>
+      <c r="V76">
+        <v>0.2</v>
+      </c>
+      <c r="W76">
+        <v>0.21</v>
+      </c>
+      <c r="X76">
+        <v>0.22</v>
+      </c>
+      <c r="Y76">
+        <v>0.23</v>
+      </c>
+      <c r="Z76">
+        <v>0.24</v>
+      </c>
+      <c r="AA76">
+        <v>0.25</v>
+      </c>
+      <c r="AB76">
+        <v>0.26</v>
+      </c>
+      <c r="AC76">
+        <v>0.27</v>
+      </c>
+      <c r="AD76">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AE76">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF76">
+        <v>0.3</v>
+      </c>
+      <c r="AG76">
+        <v>0.31</v>
+      </c>
+      <c r="AH76">
+        <v>0.32</v>
+      </c>
+      <c r="AI76">
+        <v>0.33</v>
+      </c>
+      <c r="AJ76">
+        <v>0.34</v>
+      </c>
+      <c r="AK76">
+        <v>0.35</v>
+      </c>
+      <c r="AL76">
+        <v>0.36</v>
+      </c>
+      <c r="AM76">
+        <v>0.37</v>
+      </c>
+      <c r="AN76">
+        <v>0.38</v>
+      </c>
+      <c r="AO76">
+        <v>0.39</v>
+      </c>
+      <c r="AP76">
+        <v>0.4</v>
+      </c>
+      <c r="AQ76">
+        <v>0.41</v>
+      </c>
+      <c r="AR76">
+        <v>0.42</v>
+      </c>
+      <c r="AS76">
+        <v>0.43</v>
+      </c>
+      <c r="AT76">
+        <v>0.44</v>
+      </c>
+      <c r="AU76">
+        <v>0.45</v>
+      </c>
+      <c r="AV76">
+        <v>0.46</v>
+      </c>
+      <c r="AW76">
+        <v>0.47</v>
+      </c>
+      <c r="AX76">
+        <v>0.48</v>
+      </c>
+      <c r="AY76">
+        <v>0.49</v>
+      </c>
+      <c r="AZ76">
+        <v>0.5</v>
+      </c>
+      <c r="BA76">
+        <v>0.51</v>
+      </c>
+      <c r="BB76">
+        <v>0.52</v>
+      </c>
+      <c r="BC76">
+        <v>0.53</v>
+      </c>
+      <c r="BD76">
+        <v>0.54</v>
+      </c>
+      <c r="BE76">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BF76">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BG76">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BH76">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BI76">
+        <v>0.59</v>
+      </c>
+      <c r="BJ76">
+        <v>0.6</v>
+      </c>
+      <c r="BK76">
+        <v>0.61</v>
+      </c>
+      <c r="BL76">
+        <v>0.62</v>
+      </c>
+      <c r="BM76">
+        <v>0.63</v>
+      </c>
+      <c r="BN76">
+        <v>0.64</v>
+      </c>
+      <c r="BO76">
+        <v>0.65</v>
+      </c>
+      <c r="BP76">
+        <v>0.66</v>
+      </c>
+      <c r="BQ76">
+        <v>0.67</v>
+      </c>
+      <c r="BR76">
+        <v>0.68</v>
+      </c>
+      <c r="BS76">
+        <v>0.69</v>
+      </c>
+      <c r="BT76">
+        <v>0.7</v>
+      </c>
+      <c r="BU76">
+        <v>0.71</v>
+      </c>
+      <c r="BV76">
+        <v>0.72</v>
+      </c>
+      <c r="BW76">
+        <v>0.73</v>
+      </c>
+      <c r="BX76">
+        <v>0.74</v>
+      </c>
+      <c r="BY76">
+        <v>0.75</v>
+      </c>
+      <c r="BZ76">
+        <v>0.76</v>
+      </c>
+      <c r="CA76">
+        <v>0.77</v>
+      </c>
+      <c r="CB76">
+        <v>0.78</v>
+      </c>
+      <c r="CC76">
+        <v>0.79</v>
+      </c>
+      <c r="CD76">
+        <v>0.8</v>
+      </c>
+      <c r="CE76">
+        <v>0.81</v>
+      </c>
+      <c r="CF76">
+        <v>0.82</v>
+      </c>
+      <c r="CG76">
+        <v>0.83</v>
+      </c>
+      <c r="CH76">
+        <v>0.84</v>
+      </c>
+      <c r="CI76">
+        <v>0.85</v>
+      </c>
+      <c r="CJ76">
+        <v>0.86</v>
+      </c>
+      <c r="CK76">
+        <v>0.87</v>
+      </c>
+      <c r="CL76">
+        <v>0.88</v>
+      </c>
+      <c r="CM76">
+        <v>0.89</v>
+      </c>
+      <c r="CN76">
+        <v>0.9</v>
+      </c>
+      <c r="CO76">
+        <v>0.91</v>
+      </c>
+      <c r="CP76">
+        <v>0.92</v>
+      </c>
+      <c r="CQ76">
+        <v>0.93</v>
+      </c>
+      <c r="CR76">
+        <v>0.94</v>
+      </c>
+      <c r="CS76">
+        <v>0.95</v>
+      </c>
+      <c r="CT76">
+        <v>0.96</v>
+      </c>
+      <c r="CU76">
+        <v>0.97</v>
+      </c>
+      <c r="CV76">
+        <v>0.98</v>
+      </c>
+      <c r="CW76">
+        <v>0.99</v>
       </c>
     </row>
-    <row r="35" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+    <row r="77" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>20</v>
+    <row r="81" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="82" spans="2:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>22</v>
       </c>
-      <c r="C37">
+      <c r="C82">
         <v>0.01</v>
       </c>
-      <c r="D37">
+      <c r="D82">
         <v>0.02</v>
       </c>
-      <c r="E37">
+      <c r="E82">
         <v>0.03</v>
       </c>
-      <c r="F37">
+      <c r="F82">
         <v>0.04</v>
       </c>
-      <c r="G37">
+      <c r="G82">
         <v>0.05</v>
       </c>
-      <c r="H37">
+      <c r="H82">
         <v>0.06</v>
       </c>
-      <c r="I37">
+      <c r="I82">
         <v>6.9999999999999896E-2</v>
       </c>
-      <c r="J37">
+      <c r="J82">
         <v>0.08</v>
       </c>
-      <c r="K37">
+      <c r="K82">
         <v>0.09</v>
       </c>
-      <c r="L37">
+      <c r="L82">
         <v>9.9999999999999895E-2</v>
       </c>
-      <c r="M37">
+      <c r="M82">
         <v>0.11</v>
       </c>
-      <c r="N37">
+      <c r="N82">
         <v>0.12</v>
       </c>
-      <c r="O37">
+      <c r="O82">
         <v>0.13</v>
       </c>
-      <c r="P37">
+      <c r="P82">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q37">
+      <c r="Q82">
         <v>0.15</v>
       </c>
-      <c r="R37">
+      <c r="R82">
         <v>0.16</v>
       </c>
-      <c r="S37">
+      <c r="S82">
         <v>0.17</v>
       </c>
-      <c r="T37">
+      <c r="T82">
         <v>0.18</v>
       </c>
-      <c r="U37">
+      <c r="U82">
         <v>0.19</v>
       </c>
-      <c r="V37">
+      <c r="V82">
         <v>0.2</v>
       </c>
-      <c r="W37">
+      <c r="W82">
         <v>0.21</v>
       </c>
-      <c r="X37">
+      <c r="X82">
         <v>0.22</v>
       </c>
-      <c r="Y37">
+      <c r="Y82">
         <v>0.23</v>
       </c>
-      <c r="Z37">
+      <c r="Z82">
         <v>0.24</v>
       </c>
-      <c r="AA37">
+      <c r="AA82">
         <v>0.25</v>
       </c>
-      <c r="AB37">
+      <c r="AB82">
         <v>0.26</v>
       </c>
-      <c r="AC37">
+      <c r="AC82">
         <v>0.27</v>
       </c>
-      <c r="AD37">
+      <c r="AD82">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AE37">
+      <c r="AE82">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AF37">
+      <c r="AF82">
         <v>0.3</v>
       </c>
-      <c r="AG37">
+      <c r="AG82">
         <v>0.31</v>
       </c>
-      <c r="AH37">
+      <c r="AH82">
         <v>0.32</v>
       </c>
-      <c r="AI37">
+      <c r="AI82">
         <v>0.33</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ82">
         <v>0.34</v>
       </c>
-      <c r="AK37">
+      <c r="AK82">
         <v>0.35</v>
       </c>
-      <c r="AL37">
+      <c r="AL82">
         <v>0.36</v>
       </c>
-      <c r="AM37">
+      <c r="AM82">
         <v>0.37</v>
       </c>
-      <c r="AN37">
+      <c r="AN82">
         <v>0.38</v>
       </c>
-      <c r="AO37">
+      <c r="AO82">
         <v>0.39</v>
       </c>
-      <c r="AP37">
+      <c r="AP82">
         <v>0.4</v>
       </c>
-      <c r="AQ37">
+      <c r="AQ82">
         <v>0.41</v>
       </c>
-      <c r="AR37">
+      <c r="AR82">
         <v>0.42</v>
       </c>
-      <c r="AS37">
+      <c r="AS82">
         <v>0.43</v>
       </c>
-      <c r="AT37">
+      <c r="AT82">
         <v>0.44</v>
       </c>
-      <c r="AU37">
+      <c r="AU82">
         <v>0.45</v>
       </c>
-      <c r="AV37">
+      <c r="AV82">
         <v>0.46</v>
       </c>
-      <c r="AW37">
+      <c r="AW82">
         <v>0.47</v>
       </c>
-      <c r="AX37">
+      <c r="AX82">
         <v>0.48</v>
       </c>
-      <c r="AY37">
+      <c r="AY82">
         <v>0.49</v>
       </c>
-      <c r="AZ37">
+      <c r="AZ82">
         <v>0.5</v>
       </c>
-      <c r="BA37">
+      <c r="BA82">
         <v>0.51</v>
       </c>
-      <c r="BB37">
+      <c r="BB82">
         <v>0.52</v>
       </c>
-      <c r="BC37">
+      <c r="BC82">
         <v>0.53</v>
       </c>
-      <c r="BD37">
+      <c r="BD82">
         <v>0.54</v>
       </c>
-      <c r="BE37">
+      <c r="BE82">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BF37">
+      <c r="BF82">
         <v>0.56000000000000005</v>
       </c>
-      <c r="BG37">
+      <c r="BG82">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BH37">
+      <c r="BH82">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BI37">
+      <c r="BI82">
         <v>0.59</v>
       </c>
-      <c r="BJ37">
+      <c r="BJ82">
         <v>0.6</v>
       </c>
-      <c r="BK37">
+      <c r="BK82">
         <v>0.61</v>
       </c>
-      <c r="BL37">
+      <c r="BL82">
         <v>0.62</v>
       </c>
-      <c r="BM37">
+      <c r="BM82">
         <v>0.63</v>
       </c>
-      <c r="BN37">
+      <c r="BN82">
         <v>0.64</v>
       </c>
-      <c r="BO37">
+      <c r="BO82">
         <v>0.65</v>
       </c>
-      <c r="BP37">
+      <c r="BP82">
         <v>0.66</v>
       </c>
-      <c r="BQ37">
+      <c r="BQ82">
         <v>0.67</v>
       </c>
-      <c r="BR37">
+      <c r="BR82">
         <v>0.68</v>
       </c>
-      <c r="BS37">
+      <c r="BS82">
         <v>0.69</v>
       </c>
-      <c r="BT37">
+      <c r="BT82">
         <v>0.7</v>
       </c>
-      <c r="BU37">
+      <c r="BU82">
         <v>0.71</v>
       </c>
-      <c r="BV37">
+      <c r="BV82">
         <v>0.72</v>
       </c>
-      <c r="BW37">
+      <c r="BW82">
         <v>0.73</v>
       </c>
-      <c r="BX37">
+      <c r="BX82">
         <v>0.74</v>
       </c>
-      <c r="BY37">
+      <c r="BY82">
         <v>0.75</v>
       </c>
-      <c r="BZ37">
+      <c r="BZ82">
         <v>0.76</v>
       </c>
-      <c r="CA37">
+      <c r="CA82">
         <v>0.77</v>
       </c>
-      <c r="CB37">
+      <c r="CB82">
         <v>0.78</v>
       </c>
-      <c r="CC37">
+      <c r="CC82">
         <v>0.79</v>
       </c>
-      <c r="CD37">
+      <c r="CD82">
         <v>0.8</v>
       </c>
-      <c r="CE37">
+      <c r="CE82">
         <v>0.81</v>
       </c>
-      <c r="CF37">
+      <c r="CF82">
         <v>0.82</v>
       </c>
-      <c r="CG37">
+      <c r="CG82">
         <v>0.83</v>
       </c>
-      <c r="CH37">
+      <c r="CH82">
         <v>0.84</v>
       </c>
-      <c r="CI37">
+      <c r="CI82">
         <v>0.85</v>
       </c>
-      <c r="CJ37">
+      <c r="CJ82">
         <v>0.86</v>
       </c>
-      <c r="CK37">
+      <c r="CK82">
         <v>0.87</v>
       </c>
-      <c r="CL37">
+      <c r="CL82">
         <v>0.88</v>
       </c>
-      <c r="CM37">
+      <c r="CM82">
         <v>0.89</v>
       </c>
-      <c r="CN37">
+      <c r="CN82">
         <v>0.9</v>
       </c>
-      <c r="CO37">
+      <c r="CO82">
         <v>0.91</v>
       </c>
-      <c r="CP37">
+      <c r="CP82">
         <v>0.92</v>
       </c>
-      <c r="CQ37">
+      <c r="CQ82">
         <v>0.93</v>
       </c>
-      <c r="CR37">
+      <c r="CR82">
         <v>0.94</v>
       </c>
-      <c r="CS37">
+      <c r="CS82">
         <v>0.95</v>
       </c>
-      <c r="CT37">
+      <c r="CT82">
         <v>0.96</v>
       </c>
-      <c r="CU37">
+      <c r="CU82">
         <v>0.97</v>
       </c>
-      <c r="CV37">
+      <c r="CV82">
         <v>0.98</v>
       </c>
-      <c r="CW37">
+      <c r="CW82">
         <v>0.99</v>
       </c>
     </row>
-    <row r="38" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>18</v>
+    <row r="83" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43">
-        <v>0.01</v>
-      </c>
-      <c r="D43">
-        <v>0.02</v>
-      </c>
-      <c r="E43">
-        <v>0.03</v>
-      </c>
-      <c r="F43">
-        <v>0.04</v>
-      </c>
-      <c r="G43">
-        <v>0.05</v>
-      </c>
-      <c r="H43">
-        <v>0.06</v>
-      </c>
-      <c r="I43">
-        <v>6.9999999999999896E-2</v>
-      </c>
-      <c r="J43">
-        <v>0.08</v>
-      </c>
-      <c r="K43">
-        <v>0.09</v>
-      </c>
-      <c r="L43">
-        <v>9.9999999999999895E-2</v>
-      </c>
-      <c r="M43">
-        <v>0.11</v>
-      </c>
-      <c r="N43">
-        <v>0.12</v>
-      </c>
-      <c r="O43">
-        <v>0.13</v>
-      </c>
-      <c r="P43">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q43">
-        <v>0.15</v>
-      </c>
-      <c r="R43">
-        <v>0.16</v>
-      </c>
-      <c r="S43">
-        <v>0.17</v>
-      </c>
-      <c r="T43">
-        <v>0.18</v>
-      </c>
-      <c r="U43">
-        <v>0.19</v>
-      </c>
-      <c r="V43">
-        <v>0.2</v>
-      </c>
-      <c r="W43">
-        <v>0.21</v>
-      </c>
-      <c r="X43">
-        <v>0.22</v>
-      </c>
-      <c r="Y43">
-        <v>0.23</v>
-      </c>
-      <c r="Z43">
-        <v>0.24</v>
-      </c>
-      <c r="AA43">
-        <v>0.25</v>
-      </c>
-      <c r="AB43">
-        <v>0.26</v>
-      </c>
-      <c r="AC43">
-        <v>0.27</v>
-      </c>
-      <c r="AD43">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AE43">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AF43">
-        <v>0.3</v>
-      </c>
-      <c r="AG43">
-        <v>0.31</v>
-      </c>
-      <c r="AH43">
-        <v>0.32</v>
-      </c>
-      <c r="AI43">
-        <v>0.33</v>
-      </c>
-      <c r="AJ43">
-        <v>0.34</v>
-      </c>
-      <c r="AK43">
-        <v>0.35</v>
-      </c>
-      <c r="AL43">
-        <v>0.36</v>
-      </c>
-      <c r="AM43">
-        <v>0.37</v>
-      </c>
-      <c r="AN43">
-        <v>0.38</v>
-      </c>
-      <c r="AO43">
-        <v>0.39</v>
-      </c>
-      <c r="AP43">
-        <v>0.4</v>
-      </c>
-      <c r="AQ43">
-        <v>0.41</v>
-      </c>
-      <c r="AR43">
-        <v>0.42</v>
-      </c>
-      <c r="AS43">
-        <v>0.43</v>
-      </c>
-      <c r="AT43">
-        <v>0.44</v>
-      </c>
-      <c r="AU43">
-        <v>0.45</v>
-      </c>
-      <c r="AV43">
-        <v>0.46</v>
-      </c>
-      <c r="AW43">
-        <v>0.47</v>
-      </c>
-      <c r="AX43">
-        <v>0.48</v>
-      </c>
-      <c r="AY43">
-        <v>0.49</v>
-      </c>
-      <c r="AZ43">
-        <v>0.5</v>
-      </c>
-      <c r="BA43">
-        <v>0.51</v>
-      </c>
-      <c r="BB43">
-        <v>0.52</v>
-      </c>
-      <c r="BC43">
-        <v>0.53</v>
-      </c>
-      <c r="BD43">
-        <v>0.54</v>
-      </c>
-      <c r="BE43">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BF43">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BG43">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BH43">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BI43">
-        <v>0.59</v>
-      </c>
-      <c r="BJ43">
-        <v>0.6</v>
-      </c>
-      <c r="BK43">
-        <v>0.61</v>
-      </c>
-      <c r="BL43">
-        <v>0.62</v>
-      </c>
-      <c r="BM43">
-        <v>0.63</v>
-      </c>
-      <c r="BN43">
-        <v>0.64</v>
-      </c>
-      <c r="BO43">
-        <v>0.65</v>
-      </c>
-      <c r="BP43">
-        <v>0.66</v>
-      </c>
-      <c r="BQ43">
-        <v>0.67</v>
-      </c>
-      <c r="BR43">
-        <v>0.68</v>
-      </c>
-      <c r="BS43">
-        <v>0.69</v>
-      </c>
-      <c r="BT43">
-        <v>0.7</v>
-      </c>
-      <c r="BU43">
-        <v>0.71</v>
-      </c>
-      <c r="BV43">
-        <v>0.72</v>
-      </c>
-      <c r="BW43">
-        <v>0.73</v>
-      </c>
-      <c r="BX43">
-        <v>0.74</v>
-      </c>
-      <c r="BY43">
-        <v>0.75</v>
-      </c>
-      <c r="BZ43">
-        <v>0.76</v>
-      </c>
-      <c r="CA43">
-        <v>0.77</v>
-      </c>
-      <c r="CB43">
-        <v>0.78</v>
-      </c>
-      <c r="CC43">
-        <v>0.79</v>
-      </c>
-      <c r="CD43">
-        <v>0.8</v>
-      </c>
-      <c r="CE43">
-        <v>0.81</v>
-      </c>
-      <c r="CF43">
-        <v>0.82</v>
-      </c>
-      <c r="CG43">
-        <v>0.83</v>
-      </c>
-      <c r="CH43">
-        <v>0.84</v>
-      </c>
-      <c r="CI43">
-        <v>0.85</v>
-      </c>
-      <c r="CJ43">
-        <v>0.86</v>
-      </c>
-      <c r="CK43">
-        <v>0.87</v>
-      </c>
-      <c r="CL43">
-        <v>0.88</v>
-      </c>
-      <c r="CM43">
-        <v>0.89</v>
-      </c>
-      <c r="CN43">
-        <v>0.9</v>
-      </c>
-      <c r="CO43">
-        <v>0.91</v>
-      </c>
-      <c r="CP43">
-        <v>0.92</v>
-      </c>
-      <c r="CQ43">
-        <v>0.93</v>
-      </c>
-      <c r="CR43">
-        <v>0.94</v>
-      </c>
-      <c r="CS43">
-        <v>0.95</v>
-      </c>
-      <c r="CT43">
-        <v>0.96</v>
-      </c>
-      <c r="CU43">
-        <v>0.97</v>
-      </c>
-      <c r="CV43">
-        <v>0.98</v>
-      </c>
-      <c r="CW43">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="2:101" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>16</v>
+    <row r="84" spans="2:101" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/결과 정리중.xlsx
+++ b/결과 정리중.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E39738-7421-4BA4-8DB8-E3B5F0CA928C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695D4D4-D68E-4940-8A2B-C5B089D4DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5DE18046-4857-4575-8ADD-3623AAC70F15}"/>
+    <workbookView xWindow="-510" yWindow="2700" windowWidth="14475" windowHeight="13725" activeTab="1" xr2:uid="{5DE18046-4857-4575-8ADD-3623AAC70F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -3787,7 +3787,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.27374477987822365"/>
-          <c:y val="3.7664783427495289E-2"/>
+          <c:y val="2.6365340579995972E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5482,6 +5482,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7182,6 +7186,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7360,7 +7368,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7651,30 +7659,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Density</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Density Sensitive test for 1st, 5th SC1 (Acc) </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Sensitive</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> test for </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>1st,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> 5th SC1 (Acc) </a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7710,695 +7698,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2132583856"/>
-        <c:axId val="2132834336"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Q2'!$B$54</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Q2'!$C$54:$CW$54</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="99"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>58</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>98</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Q2'!$C$54:$CW$54</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="99"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>58</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>98</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-1C0C-40EA-822B-D12C196B6DF3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Q2'!$B$55</c:f>
@@ -8406,6 +7711,657 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1st iteration Acc(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Q2'!$C$54:$CX$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$55:$CX$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86259541984732802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86153846153846103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.86486486486486402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C0C-40EA-822B-D12C196B6DF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5th iteration Acc(%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8422,348 +8378,315 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Q2'!$C$55:$CX$55</c:f>
+              <c:f>'Q2'!$C$54:$CX$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.86259541984732802</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.86153846153846103</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.83636363636363598</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.86486486486486402</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C0C-40EA-822B-D12C196B6DF3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q2'!$B$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5th iteration Acc(%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Q2'!$C$56:$CX$56</c:f>
@@ -9088,7 +9011,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2132583856"/>
         <c:axId val="2132834336"/>
@@ -9139,9 +9061,9 @@
         </c:txPr>
         <c:crossAx val="2132834336"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="10"/>
         <c:tickLblSkip val="10"/>
         <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
@@ -9200,8 +9122,8 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2132583856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13126,7 +13048,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13330,22 +13252,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13515,6 +13438,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -13583,19 +13517,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14184,16 +14119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>145189</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>662260</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>152880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
+      <xdr:colOff>486655</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>197704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14222,16 +14157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14370,16 +14305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14406,16 +14341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15513,8 +15448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6665439-C7D2-471B-A0A9-E7F581BF32C8}">
   <dimension ref="B2:CX82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/결과 정리중.xlsx
+++ b/결과 정리중.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695D4D4-D68E-4940-8A2B-C5B089D4DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8442A3-2041-4150-AB97-B1BB8F251E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-510" yWindow="2700" windowWidth="14475" windowHeight="13725" activeTab="1" xr2:uid="{5DE18046-4857-4575-8ADD-3623AAC70F15}"/>
   </bookViews>
@@ -1082,13 +1082,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1097,7 +1111,25 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Comparison</a:t>
+              <a:t>Sensitive test(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>β</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+              <a:t>with</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
@@ -1105,7 +1137,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>MNIST with</a:t>
+              <a:t>MNIST &amp;</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
@@ -1123,8 +1155,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12887371213676493"/>
-          <c:y val="3.3467211204064956E-2"/>
+          <c:x val="0.12640765907901999"/>
+          <c:y val="7.7696985510642039E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1139,13 +1171,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1163,10 +1209,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10458092738407698"/>
-          <c:y val="0.13286243427327715"/>
-          <c:w val="0.8225325896762905"/>
-          <c:h val="0.64457561137296848"/>
+          <c:x val="8.902850503500695E-2"/>
+          <c:y val="0.21132889468530774"/>
+          <c:w val="0.8052886242690922"/>
+          <c:h val="0.63092914773391218"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1174,22 +1220,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2'!$B$5</c:f>
+              <c:f>'Q2'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MNIST_Acc(%)</c:v>
+                  <c:v>MNIST_Num</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1197,657 +1243,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7410-47CE-9BD7-FD95DC796844}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-7410-47CE-9BD7-FD95DC796844}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="41"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7410-47CE-9BD7-FD95DC796844}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Q2'!$C$5:$CD$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50049152542372799</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.50048305903489798</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.50060186833494402</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.50549507160765095</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.51903460349786501</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.53519492429488502</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.551835006273525</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.58534681044124104</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.60783350453307095</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63200341572180796</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.66759102346839205</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.70256026185126597</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.72574194906335499</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.75556651866469304</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.88802419354838702</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.910746499441628</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.92230983302411795</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.942747339377217</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.95098801929360499</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.95602130218175496</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.96454152607588906</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.97239810659617598</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.97588137966144795</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.98206307490144495</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.98682333763499197</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.98858833474218</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.99009251839440504</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.99366363844568195</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.99520345351346995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.99582916249582898</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.99610220874837596</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.99641807494489298</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.99692159692159599</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.99704503770124298</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.99705272350180096</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.99710044073300796</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.99747474747474696</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.997798266134581</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.99799041582933901</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.99808027923211096</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.99822450187413603</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.99813823597858897</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.99806789953077502</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.99799263967882201</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.99835255354200902</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.99893105291287998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.998493975903614</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.99896157840083</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7410-47CE-9BD7-FD95DC796844}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q2'!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fashion_Acc(%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="65"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-5B34-4484-A6B8-3D515402887D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>'Q2'!$C$7:$CD$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50422033898304996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50397837396715295</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.50272630016909903</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.50904490147518</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.51383399209486103</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.51631769359101698</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52574937912712005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55013666217925095</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.57917888563049802</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.58801992131535197</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.59875343634467704</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.60517589568426</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.61465440522100201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.62037275616250098</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.62816728167281599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.63654598664956696</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.64550264550264502</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.65804101254412894</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.67163998548328496</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.68444904829729303</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.69464384318056305</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.70830666207100301</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.72047264862583704</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.73559245197483902</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.74628230131643103</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.76706084428882804</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.77602862254024996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.79499450808096594</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.80247751569658898</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.81913123844731905</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.83173748254538205</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.84786211468345996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.85891118855906701</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.87765176784523002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.89567392583872796</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.90251775338928297</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.90480411274596695</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.90385733669315704</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.908762995968597</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.90978338490835498</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.91187433439829602</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.91460811222933802</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.91198568872987396</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.91731160896130304</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.91279373368146199</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.91625000000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.91487603305785103</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.91843220338983</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.92711370262390602</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.92110874200426396</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.90962099125364404</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.94372294372294296</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.95104895104895104</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.95555555555555505</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97368421052631504</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5B34-4484-A6B8-3D515402887D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="922971680"/>
-        <c:axId val="922968072"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q2'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MNIST_Num</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'Q2'!$C$4:$CD$4</c:f>
@@ -2346,7 +1741,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7410-47CE-9BD7-FD95DC796844}"/>
@@ -2368,17 +1762,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Q2'!$C$4:$CD$4</c:f>
@@ -2877,7 +2269,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-5B34-4484-A6B8-3D515402887D}"/>
@@ -2892,16 +2283,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="922959216"/>
         <c:axId val="922957248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
@@ -2920,17 +2310,15 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
@@ -3441,16 +2829,679 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7410-47CE-9BD7-FD95DC796844}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MNIST_Acc(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7410-47CE-9BD7-FD95DC796844}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7410-47CE-9BD7-FD95DC796844}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7410-47CE-9BD7-FD95DC796844}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$5:$CD$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50049152542372799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50048305903489798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50060186833494402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50549507160765095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51903460349786501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53519492429488502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.551835006273525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58534681044124104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60783350453307095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63200341572180796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66759102346839205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70256026185126597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72574194906335499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75556651866469304</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88802419354838702</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.910746499441628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92230983302411795</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.942747339377217</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95098801929360499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95602130218175496</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96454152607588906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97239810659617598</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97588137966144795</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98206307490144495</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98682333763499197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98858833474218</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99009251839440504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99366363844568195</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99520345351346995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99582916249582898</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99610220874837596</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99641807494489298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99692159692159599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99704503770124298</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99705272350180096</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99710044073300796</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99747474747474696</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.997798266134581</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99799041582933901</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99808027923211096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99822450187413603</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99813823597858897</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99806789953077502</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99799263967882201</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99835255354200902</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99893105291287998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.998493975903614</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99896157840083</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7410-47CE-9BD7-FD95DC796844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fashion_Acc(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="65"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-5B34-4484-A6B8-3D515402887D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$7:$CD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50422033898304996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50397837396715295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50272630016909903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50904490147518</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51383399209486103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51631769359101698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52574937912712005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55013666217925095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57917888563049802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58801992131535197</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59875343634467704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60517589568426</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61465440522100201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62037275616250098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62816728167281599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63654598664956696</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64550264550264502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65804101254412894</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67163998548328496</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68444904829729303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69464384318056305</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70830666207100301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72047264862583704</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73559245197483902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74628230131643103</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76706084428882804</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77602862254024996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79499450808096594</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80247751569658898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.81913123844731905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83173748254538205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84786211468345996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85891118855906701</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.87765176784523002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89567392583872796</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.90251775338928297</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90480411274596695</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.90385733669315704</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.908762995968597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.90978338490835498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.91187433439829602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91460811222933802</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.91198568872987396</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.91731160896130304</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.91279373368146199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.91625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.91487603305785103</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.91843220338983</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92711370262390602</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.92110874200426396</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.90962099125364404</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.94372294372294296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95104895104895104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95555555555555505</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97368421052631504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5B34-4484-A6B8-3D515402887D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="922971680"/>
+        <c:axId val="922968072"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="922959216"/>
@@ -3459,6 +3510,108 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Threshold </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>β</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t> (x0.01)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40812428897438707"/>
+              <c:y val="0.89410829244574697"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3497,12 +3650,12 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="922957248"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="10"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:tickLblSkip val="5"/>
-        <c:tickMarkSkip val="5"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3527,7 +3680,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Num</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> of pseudo labeling(x 1000)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.27855762295489317"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3563,6 +3784,9 @@
         <c:crossAx val="922959216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="922968072"/>
@@ -3572,18 +3796,91 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
             <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95022099621310241"/>
+              <c:y val="0.45083416314772118"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3647,15 +3944,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25527149815187034"/>
-          <c:y val="0.86628438564240695"/>
-          <c:w val="0.4753973135585452"/>
-          <c:h val="0.10689806869092601"/>
+          <c:x val="4.9999979996647438E-2"/>
+          <c:y val="0.14359380057782117"/>
+          <c:w val="0.89406941555213404"/>
+          <c:h val="5.6446103155560361E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3765,12 +4062,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sensitive test(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>β</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) with </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>EMNIST </a:t>
+              <a:t>EMNIST</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t>Threshold </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3786,8 +4101,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27374477987822365"/>
-          <c:y val="2.6365340579995972E-2"/>
+          <c:x val="0.24235744500488829"/>
+          <c:y val="6.0950572420011478E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3826,10 +4141,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11392478774161327"/>
-          <c:y val="0.11709981167608288"/>
-          <c:w val="0.81525433814700288"/>
-          <c:h val="0.70936577843023874"/>
+          <c:x val="0.12180325005082354"/>
+          <c:y val="0.19211125987048824"/>
+          <c:w val="0.75663070796133947"/>
+          <c:h val="0.65837591191016143"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4187,6 +4502,195 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num of Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$34:$AZ$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10620</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8234</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6346</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4306</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C7FF-4FE7-BEC4-F22558A80F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4195,14 +4699,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="150"/>
         <c:axId val="925484608"/>
         <c:axId val="833764200"/>
       </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -4219,25 +4721,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dPt>
             <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4249,14 +4755,16 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
-            <c:invertIfNegative val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4425,6 +4933,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C7FF-4FE7-BEC4-F22558A80F0C}"/>
@@ -4439,218 +4948,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="925749664"/>
-        <c:axId val="925749992"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q2'!$B$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>num of Classification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Q2'!$C$34:$AZ$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>123800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>123800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122037</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>112441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97814</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86492</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18760</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16357</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10620</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9431</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8234</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7260</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6346</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5566</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4912</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4306</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3669</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3144</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2681</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2232</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1877</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1554</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1287</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C7FF-4FE7-BEC4-F22558A80F0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="925484608"/>
-        <c:axId val="833764200"/>
+        <c:axId val="730961200"/>
+        <c:axId val="639137856"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="925484608"/>
@@ -4659,6 +4960,80 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Threshold </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>β</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t> (x0.01)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44664998768997533"/>
+              <c:y val="0.88891572971468558"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4700,7 +5075,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -4727,8 +5102,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Num of pseudo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> labeling(x 1000)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7782804861396724E-2"/>
+              <c:y val="0.28095549058717451"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4761,27 +5204,93 @@
         <c:crossAx val="925484608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:custUnit val="1000"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="925749992"/>
+        <c:axId val="639137856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:minorGridlines>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94373034822325363"/>
+              <c:y val="0.44750867510041253"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4813,13 +5322,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925749664"/>
+        <c:crossAx val="730961200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="925749664"/>
+        <c:axId val="730961200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,8 +5336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="925749992"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="639137856"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4844,11 +5351,21 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23338366137868638"/>
+          <c:y val="0.12375365447143366"/>
+          <c:w val="0.54450971694507755"/>
+          <c:h val="6.2687952852846798E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4956,17 +5473,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Fashion</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sensitive test (M) with Fashion MNIST</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> MNIST - Num of subgraph</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21082978834141813"/>
+          <c:y val="7.8459447476869185E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5148,7 +5673,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5234,7 +5759,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5309,6 +5834,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Num of contact</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>subgraph(M)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30885603434815523"/>
+              <c:y val="0.86521110279314184"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5350,7 +5947,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -5376,6 +5973,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Num of pseudo labeling (x 100)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7889978208483955E-2"/>
+              <c:y val="0.22598683015110438"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5410,6 +6071,9 @@
         <c:crossAx val="1830756832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:custUnit val="100"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="2046783584"/>
@@ -5420,6 +6084,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92133620665990723"/>
+              <c:y val="0.44007500708642533"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5481,11 +6209,21 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21684633741998377"/>
+          <c:y val="0.17579531496434986"/>
+          <c:w val="0.52168314042033048"/>
+          <c:h val="7.7883084884473111E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5593,13 +6331,35 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Fashion MNIST - Density of Subgraph</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sensitive test (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) with Fashion MNIST</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1997981227478659"/>
+          <c:y val="8.3074709093155605E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6318,7 +7078,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6671,7 +7431,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7013,6 +7773,82 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Density of subgraph </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> (x 0.01)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30976064881654453"/>
+              <c:y val="0.86521110279314184"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7080,6 +7916,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Num of pseudo labeling (x 100)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7124,6 +8016,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91023200300950313"/>
+              <c:y val="0.42834061357541048"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -7185,11 +8141,21 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23652143414934351"/>
+          <c:y val="0.17118005334806344"/>
+          <c:w val="0.5213823521794535"/>
+          <c:h val="7.7883084884473111E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7306,16 +8272,24 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t> in Fashion</a:t>
+              <a:t>in Fashion</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> MNIST(Acc)</a:t>
+              <a:t> MNIST</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22159449990055155"/>
+          <c:y val="4.574646158323821E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7472,6 +8446,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50259252247720576"/>
+              <c:y val="0.86639727884197337"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7512,7 +8550,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -7538,6 +8576,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.428523689486951E-2"/>
+              <c:y val="0.39285411482074883"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7645,13 +8747,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7660,12 +8776,36 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Density Sensitive test for 1st, 5th SC1 (Acc) </a:t>
+              <a:t>Sensitive test(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> with 1st, 5th iteration </a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25475576871455019"/>
+          <c:y val="0.10064221548312406"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7678,13 +8818,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7697,7 +8851,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14280967512524012"/>
+          <c:y val="0.29261778182972159"/>
+          <c:w val="0.81131819354433865"/>
+          <c:h val="0.51392835671866033"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -7718,7 +8882,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8369,7 +9533,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9022,6 +10186,124 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Density of subgraph(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1050" b="0" i="0" u="none" strike="noStrike">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>x 0.01</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" altLang="ko-KR" sz="1800" b="0" i="0" u="none" strike="noStrike">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34888608686777567"/>
+              <c:y val="0.84414366584950407"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9063,7 +10345,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="10"/>
+        <c:lblOffset val="0"/>
         <c:tickLblSkip val="10"/>
         <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
@@ -9090,6 +10372,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9134,7 +10472,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17829132226362998"/>
+          <c:y val="0.19254685680384961"/>
+          <c:w val="0.64255179989618616"/>
+          <c:h val="7.7985478837040656E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9243,16 +10591,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Num</a:t>
+              <a:t>Sensitive</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> of contact Sensitive test for 1st, 5th SC1 (ACC)</a:t>
+              <a:t> test (M) with 1st, 5th iteration</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24307073141707142"/>
+          <c:y val="9.149292316647642E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9305,7 +10661,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9404,7 +10760,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9505,6 +10861,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Num</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> of contact subgraph(M)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39501487929417012"/>
+              <c:y val="0.86182263268364956"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9546,7 +10970,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -9572,6 +10996,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3024194333849117E-2"/>
+              <c:y val="0.44461737030348308"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9616,7 +11104,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19223619160712779"/>
+          <c:y val="0.17424827217055439"/>
+          <c:w val="0.61987383239704896"/>
+          <c:h val="7.7985478837040656E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14120,15 +15618,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>662260</xdr:colOff>
+      <xdr:colOff>535781</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152880</xdr:rowOff>
+      <xdr:rowOff>45724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>486655</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>197704</xdr:rowOff>
+      <xdr:colOff>601264</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14163,10 +15661,10 @@
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14232,13 +15730,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>196412</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>653612</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -15448,8 +16946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6665439-C7D2-471B-A0A9-E7F581BF32C8}">
   <dimension ref="B2:CX82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA8" sqref="BA8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
